--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/15/seed5/result_data_RandomForest.xlsx
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.173700000000007</v>
+        <v>6.285500000000004</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.102899999999998</v>
+        <v>-7.250199999999996</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5849</v>
+        <v>-21.60250000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>7.510899999999997</v>
+        <v>7.176599999999994</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.571299999999999</v>
+        <v>-7.505400000000004</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.913600000000002</v>
+        <v>-8.0365</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>3.900100000000004</v>
+        <v>4.261300000000007</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.7573</v>
+        <v>-21.77439999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.445300000000002</v>
+        <v>-7.5851</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.023600000000005</v>
+        <v>5.162600000000005</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.33820000000001</v>
+        <v>-21.40580000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.149800000000001</v>
+        <v>9.182399999999996</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.94390000000001</v>
+        <v>-19.9242</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.125500000000004</v>
+        <v>8.881600000000002</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.3247</v>
+        <v>-19.4021</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.294300000000001</v>
+        <v>-7.221800000000004</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.379600000000002</v>
+        <v>6.467699999999999</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.5265</v>
+        <v>-21.48089999999999</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.469300000000001</v>
+        <v>-7.5076</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.502500000000001</v>
+        <v>5.107600000000002</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.7584</v>
+        <v>-21.7016</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.4926</v>
+        <v>-22.37660000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.1625</v>
+        <v>-22.28700000000002</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.903599999999995</v>
+        <v>4.880499999999994</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.414799999999993</v>
+        <v>-8.171799999999996</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.43169999999998</v>
+        <v>-21.43499999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.60069999999998</v>
+        <v>-21.54589999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.96350000000001</v>
+        <v>-21.95650000000001</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.601200000000005</v>
+        <v>-7.587700000000004</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.950100000000001</v>
+        <v>5.9973</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.4267</v>
+        <v>-21.5605</v>
       </c>
       <c r="B83" t="n">
-        <v>5.7125</v>
+        <v>5.691800000000005</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.533799999999996</v>
+        <v>-8.568000000000005</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.9251</v>
+        <v>-22.02830000000001</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.083600000000001</v>
+        <v>-6.210299999999997</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.38630000000001</v>
+        <v>-21.35450000000002</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.1103</v>
+        <v>-6.162199999999998</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.049800000000001</v>
+        <v>-6.103199999999998</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.70130000000001</v>
+        <v>-21.2635</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.407600000000005</v>
+        <v>-7.4321</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.18759999999999</v>
+        <v>-20.23209999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.558399999999999</v>
+        <v>5.332899999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,13 +2165,13 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.373500000000002</v>
+        <v>8.922300000000002</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.9631</v>
+        <v>-8.046900000000001</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
